--- a/wikicfp/wikicfp_visualization.xlsx
+++ b/wikicfp/wikicfp_visualization.xlsx
@@ -14,720 +14,531 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ARIN  2018</t>
-  </si>
-  <si>
-    <t>Signal 2018</t>
-  </si>
-  <si>
-    <t>SPPR 2018</t>
-  </si>
-  <si>
-    <t>SIPIJ 2018</t>
-  </si>
-  <si>
-    <t>GridCom 2018</t>
-  </si>
-  <si>
-    <t>EI/Scopus--CGDIP 2018</t>
-  </si>
-  <si>
-    <t>Scopus-ICVMIP 2018</t>
-  </si>
-  <si>
-    <t>ELELIJ 2018</t>
-  </si>
-  <si>
-    <t>EI/Scopus-CCISP 2018</t>
-  </si>
-  <si>
-    <t>Scopus-ICVAT 2018</t>
-  </si>
-  <si>
-    <t>COLLNET 2018</t>
-  </si>
-  <si>
-    <t>VisGuides 2018</t>
-  </si>
-  <si>
-    <t>Call for Participants 2018</t>
-  </si>
-  <si>
-    <t>CCMB-Ei,CPCI,Scopus 2018</t>
-  </si>
-  <si>
-    <t>SP  2018</t>
-  </si>
-  <si>
-    <t>CGVC 2018</t>
-  </si>
-  <si>
-    <t>VOILA 2018</t>
-  </si>
-  <si>
-    <t>CIRSY 2018</t>
-  </si>
-  <si>
-    <t>CHIRA 2018</t>
-  </si>
-  <si>
-    <t>EI/Scopus--DMCIT 2018</t>
-  </si>
-  <si>
-    <t>COMPImage 2018</t>
-  </si>
-  <si>
-    <t>DMSVIVA 2018</t>
-  </si>
-  <si>
-    <t>VISUAL 2018</t>
-  </si>
-  <si>
-    <t>MICCAI 2018</t>
-  </si>
-  <si>
-    <t>WSCG 2018</t>
-  </si>
-  <si>
-    <t>Web3D 2018</t>
-  </si>
-  <si>
-    <t>SDMA 2018</t>
-  </si>
-  <si>
-    <t>PacificVis 2018</t>
-  </si>
-  <si>
-    <t>HPORT-BD 2017</t>
-  </si>
-  <si>
-    <t>BDVA 2017</t>
-  </si>
-  <si>
-    <t>VOILA 2017</t>
-  </si>
-  <si>
-    <t>VizSec 2017</t>
-  </si>
-  <si>
-    <t>GD 2017</t>
-  </si>
-  <si>
-    <t>IDEA 2017</t>
-  </si>
-  <si>
-    <t>TAProViz 2017</t>
-  </si>
-  <si>
-    <t>DigiPro 2017</t>
-  </si>
-  <si>
-    <t>CAD/Graphics 2017</t>
-  </si>
-  <si>
-    <t>AICON 2017</t>
-  </si>
-  <si>
-    <t>SIBGRAPI 2017</t>
-  </si>
-  <si>
-    <t>Web3D 2017</t>
-  </si>
-  <si>
-    <t>SDS 2017</t>
-  </si>
-  <si>
-    <t>JWS - VOILA 2017</t>
-  </si>
-  <si>
-    <t>JWS-VOILA 2016</t>
-  </si>
-  <si>
-    <t>WSCG  2017</t>
-  </si>
-  <si>
-    <t>EuroVis 2017</t>
-  </si>
-  <si>
-    <t>SI-VGA 2016</t>
-  </si>
-  <si>
-    <t>VMV Poster 2016</t>
-  </si>
-  <si>
-    <t>ISVC 2016</t>
-  </si>
-  <si>
-    <t>VizSec 2016</t>
-  </si>
-  <si>
-    <t>VisualCol 2016</t>
-  </si>
-  <si>
-    <t>MMHealth  2016</t>
-  </si>
-  <si>
-    <t>VOILA 2016</t>
-  </si>
-  <si>
-    <t>VMV 2016</t>
-  </si>
-  <si>
-    <t>GD 2016</t>
-  </si>
-  <si>
-    <t>TAProViz 2016</t>
-  </si>
-  <si>
-    <t>Web3D 2016</t>
-  </si>
-  <si>
-    <t>CV4VA 2016</t>
-  </si>
-  <si>
-    <t>Conference-Live 2016</t>
-  </si>
-  <si>
-    <t>SIBGRAPI 2016</t>
-  </si>
-  <si>
-    <t>Hot Spots in Learning Analytics from LA 2016</t>
-  </si>
-  <si>
-    <t>WSCG 2016</t>
-  </si>
-  <si>
-    <t>EuroVis (short paper) 2016</t>
-  </si>
-  <si>
-    <t>SCCG 2016</t>
-  </si>
-  <si>
-    <t>CASA 2016</t>
-  </si>
-  <si>
-    <t>IDAVis 2016</t>
-  </si>
-  <si>
-    <t>AVI 2016</t>
-  </si>
-  <si>
-    <t>CARS 2016</t>
-  </si>
-  <si>
-    <t>Infovis &amp;amp; ML CFP at ESANN 2016</t>
-  </si>
-  <si>
-    <t>IPCAI 2016</t>
-  </si>
-  <si>
-    <t>PJIM 2015</t>
-  </si>
-  <si>
-    <t>VMV 2015</t>
-  </si>
-  <si>
-    <t>BigSpatial 2015</t>
-  </si>
-  <si>
-    <t>ISVC 2015</t>
-  </si>
-  <si>
-    <t>VizSec 2015</t>
-  </si>
-  <si>
-    <t>UDMV 2015</t>
-  </si>
-  <si>
-    <t>VOILA 2015</t>
-  </si>
-  <si>
-    <t>GD 2015</t>
-  </si>
-  <si>
-    <t>DIViM 2015</t>
-  </si>
-  <si>
-    <t>ICVRV 2015</t>
-  </si>
-  <si>
-    <t>IDEA 2015</t>
-  </si>
-  <si>
-    <t>TAProViz 2015</t>
-  </si>
-  <si>
-    <t>BDVA 2015</t>
-  </si>
-  <si>
-    <t>VISSOFT 2015</t>
-  </si>
-  <si>
-    <t>VINCI 2015</t>
-  </si>
-  <si>
-    <t>SIGRAD 2015</t>
-  </si>
-  <si>
-    <t>SIBGRAPI 2015</t>
-  </si>
-  <si>
-    <t>VBI-OD@IV 2015</t>
-  </si>
-  <si>
-    <t>HDPT 2015</t>
-  </si>
-  <si>
-    <t>SML-DS 2015</t>
-  </si>
-  <si>
-    <t>PacificVis Notes 2015</t>
-  </si>
-  <si>
-    <t>VISUAL 2014</t>
-  </si>
-  <si>
-    <t>PacificVis 2015</t>
-  </si>
-  <si>
-    <t>DIViS 2014</t>
-  </si>
-  <si>
-    <t>VizSec 2014</t>
-  </si>
-  <si>
-    <t>ISM 2014</t>
-  </si>
-  <si>
-    <t>VPA 2014</t>
-  </si>
-  <si>
-    <t>VEM 2014</t>
-  </si>
-  <si>
-    <t>VMV 2014</t>
-  </si>
-  <si>
-    <t>IDEA 2014</t>
-  </si>
-  <si>
-    <t>VCBM 2014</t>
-  </si>
-  <si>
-    <t>VISAP 2014</t>
-  </si>
-  <si>
-    <t>TAProViz  2014</t>
-  </si>
-  <si>
-    <t>ICVRV 2014</t>
-  </si>
-  <si>
-    <t>VISSOFT 2014</t>
-  </si>
-  <si>
-    <t>DTOD 2014</t>
-  </si>
-  <si>
-    <t>BFX 2014</t>
-  </si>
-  <si>
-    <t>GTM 2014</t>
-  </si>
-  <si>
-    <t>SIGRAD 2014</t>
-  </si>
-  <si>
-    <t>VINCI 2014</t>
-  </si>
-  <si>
-    <t>VIS 2014</t>
-  </si>
-  <si>
-    <t>VisHMC 2014</t>
-  </si>
-  <si>
-    <t>VBI-OD 2014</t>
-  </si>
-  <si>
-    <t>VAST 2014</t>
-  </si>
-  <si>
-    <t>SCCG 2014</t>
-  </si>
-  <si>
-    <t>iV2014-ARVA 2014</t>
-  </si>
-  <si>
-    <t>EVA London 2014</t>
-  </si>
-  <si>
-    <t>CG&amp;amp;A 2014</t>
-  </si>
-  <si>
-    <t>CC 2014</t>
-  </si>
-  <si>
-    <t>VAHC 2013</t>
-  </si>
-  <si>
-    <t>TextVis 2013</t>
-  </si>
-  <si>
-    <t>MapInteract  2013</t>
-  </si>
-  <si>
-    <t>VDA 2014</t>
-  </si>
-  <si>
-    <t>VizSec 2013</t>
-  </si>
-  <si>
-    <t>CG&amp;amp;A VisAnalytics for Bio Data 2014</t>
-  </si>
-  <si>
-    <t>IDEA 2013</t>
-  </si>
-  <si>
-    <t>TAProViz 2013</t>
-  </si>
-  <si>
-    <t>VISSOFT 2013</t>
-  </si>
-  <si>
-    <t>LDAV 2013</t>
-  </si>
-  <si>
-    <t>ISVC 2013</t>
-  </si>
-  <si>
-    <t>VINCI 2013</t>
-  </si>
-  <si>
-    <t>SPRINGER-SI-CVS 2013</t>
-  </si>
-  <si>
-    <t>WUAV 2013</t>
-  </si>
-  <si>
-    <t>WSCG 2013</t>
-  </si>
-  <si>
-    <t>ISI Special Topic 2013</t>
-  </si>
-  <si>
-    <t>SocMedVis 2013</t>
-  </si>
-  <si>
-    <t>VBI@IV 2013</t>
-  </si>
-  <si>
-    <t>AIVDAC@IV 2013</t>
-  </si>
-  <si>
-    <t>HSWI 2013</t>
-  </si>
-  <si>
-    <t>SIGGRAPH 2013</t>
-  </si>
-  <si>
-    <t>EVA London 2013</t>
-  </si>
-  <si>
-    <t>EuroVis 2013</t>
-  </si>
-  <si>
-    <t>EIPT-WSN 2013</t>
-  </si>
-  <si>
-    <t>SIPP 2013</t>
-  </si>
-  <si>
-    <t>II-SDV 2013</t>
-  </si>
-  <si>
-    <t>ForceVA 2012</t>
-  </si>
-  <si>
-    <t>DVVA 2013</t>
-  </si>
-  <si>
-    <t>IVAPP 2013</t>
-  </si>
-  <si>
-    <t>SIGRAD 2012</t>
-  </si>
-  <si>
-    <t>VAHC 2012</t>
-  </si>
-  <si>
-    <t>VUCSE 2012</t>
-  </si>
-  <si>
-    <t>NextMed / MMVR 2013</t>
-  </si>
-  <si>
-    <t>VizSec 2012</t>
-  </si>
-  <si>
-    <t>WSOM 2012</t>
-  </si>
-  <si>
-    <t>VINCI 2012</t>
-  </si>
-  <si>
-    <t>VMV 2012</t>
-  </si>
-  <si>
-    <t>HCV 2012</t>
-  </si>
-  <si>
-    <t>TAProViz 2012</t>
-  </si>
-  <si>
-    <t>ISMAR 2012</t>
-  </si>
-  <si>
-    <t>ISVC 2012</t>
-  </si>
-  <si>
-    <t>CC 2012</t>
-  </si>
-  <si>
-    <t>Vis 2012</t>
-  </si>
-  <si>
-    <t>INFOVIS 2012</t>
-  </si>
-  <si>
-    <t>VL/HCC 2012</t>
-  </si>
-  <si>
-    <t>SocMedVis 2012</t>
-  </si>
-  <si>
-    <t>MCACT 2012</t>
-  </si>
-  <si>
-    <t>EGPGV 2012</t>
-  </si>
-  <si>
-    <t>3DGeoInfo 2012</t>
-  </si>
-  <si>
-    <t>EVA London 2012</t>
-  </si>
-  <si>
-    <t>CollabViz 2012</t>
-  </si>
-  <si>
-    <t>VISPETCHE 2012</t>
-  </si>
-  <si>
-    <t>Advances in Signal Processing 2012</t>
-  </si>
-  <si>
-    <t>DLA 2012</t>
-  </si>
-  <si>
-    <t>3DUI 2012</t>
-  </si>
-  <si>
-    <t>AFRIGRAPH 2012</t>
-  </si>
-  <si>
-    <t>II-SDV 2012</t>
-  </si>
-  <si>
-    <t>IVAPP 2012</t>
-  </si>
-  <si>
-    <t>PacificVis 2012</t>
-  </si>
-  <si>
-    <t>VAHC 2011</t>
-  </si>
-  <si>
-    <t>WikiViz 2011</t>
-  </si>
-  <si>
-    <t>ADVTEL 2011</t>
-  </si>
-  <si>
-    <t>PSB 2012</t>
-  </si>
-  <si>
-    <t>VDA 2012</t>
-  </si>
-  <si>
-    <t>Dataview 2011</t>
-  </si>
-  <si>
-    <t>VISSOFT 2011</t>
-  </si>
-  <si>
-    <t>ISVC 2011</t>
-  </si>
-  <si>
-    <t>WMSVM 2011</t>
-  </si>
-  <si>
-    <t>CGA 2011</t>
-  </si>
-  <si>
-    <t>IKTC 2011</t>
-  </si>
-  <si>
-    <t>BioVis 2011</t>
-  </si>
-  <si>
-    <t>LDAV 2011</t>
-  </si>
-  <si>
-    <t>IWPU 2011</t>
-  </si>
-  <si>
-    <t>NLV 2011</t>
-  </si>
-  <si>
-    <t>Vis 2011</t>
-  </si>
-  <si>
-    <t>InfoVis 2011</t>
-  </si>
-  <si>
-    <t>VAST 2011</t>
-  </si>
-  <si>
-    <t>IMAGE 2011</t>
-  </si>
-  <si>
-    <t>MSV 2011</t>
-  </si>
-  <si>
-    <t>SCCG 2011</t>
-  </si>
-  <si>
-    <t>ICPC 2011</t>
-  </si>
-  <si>
-    <t>IRFC 2011</t>
-  </si>
-  <si>
-    <t>ICCS 2011</t>
-  </si>
-  <si>
-    <t>EVA London 2011</t>
-  </si>
-  <si>
-    <t>3DTV-CON 2011</t>
-  </si>
-  <si>
-    <t>EuroVis 2011</t>
-  </si>
-  <si>
-    <t>PacificVis 2011</t>
-  </si>
-  <si>
-    <t>VAHC 2010</t>
-  </si>
-  <si>
-    <t>ISVC 2010</t>
-  </si>
-  <si>
-    <t>DATAVIEW 2010</t>
-  </si>
-  <si>
-    <t>VMV 2010</t>
-  </si>
-  <si>
-    <t>IJCICG 2010</t>
-  </si>
-  <si>
-    <t>IHM 2010</t>
-  </si>
-  <si>
-    <t>YAH2 2010</t>
-  </si>
-  <si>
-    <t>SoftVis 2010</t>
-  </si>
-  <si>
-    <t>VisWeek 2010</t>
-  </si>
-  <si>
-    <t>InfoVis 2010</t>
-  </si>
-  <si>
-    <t>CGIV 2010</t>
-  </si>
-  <si>
-    <t>VCM 2010</t>
-  </si>
-  <si>
-    <t>IVAPP 2010</t>
-  </si>
-  <si>
-    <t>WSCG 2010</t>
-  </si>
-  <si>
-    <t>CGIM 2010</t>
-  </si>
-  <si>
-    <t>GeyserValley 2009</t>
-  </si>
-  <si>
-    <t>REV 2009</t>
-  </si>
-  <si>
-    <t>WDSN 2009</t>
-  </si>
-  <si>
-    <t>CGVCVIP 2009</t>
-  </si>
-  <si>
-    <t>ICFCA 2009</t>
-  </si>
-  <si>
-    <t>OnAV 2009</t>
-  </si>
-  <si>
-    <t>VIIP 2008</t>
-  </si>
-  <si>
-    <t>CDVE 2008</t>
-  </si>
-  <si>
-    <t>3D-PVT 2008</t>
-  </si>
-  <si>
-    <t>IEEE OnAV 2008</t>
-  </si>
-  <si>
-    <t>WSCG 2008</t>
-  </si>
-  <si>
-    <t>Metrics for Visual Analytics 2007</t>
-  </si>
-  <si>
-    <t>APGV 2010</t>
-  </si>
-  <si>
-    <t>Chinagraph 2018</t>
-  </si>
-  <si>
-    <t>VIS 2007</t>
-  </si>
-  <si>
-    <t>VISINF 2017</t>
-  </si>
-  <si>
-    <t>CMBBE: Imaging &amp;amp; Visualization 2013</t>
+    <t>SPPR</t>
+  </si>
+  <si>
+    <t>SIPIJ</t>
+  </si>
+  <si>
+    <t>GridCom</t>
+  </si>
+  <si>
+    <t>EI/Scopus--CGDIP</t>
+  </si>
+  <si>
+    <t>Scopus-ICVMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VisCARLA </t>
+  </si>
+  <si>
+    <t>CNDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPPR </t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>ELELIJ</t>
+  </si>
+  <si>
+    <t>EI/Scopus-CCISP</t>
+  </si>
+  <si>
+    <t>Scopus-ICVAT</t>
+  </si>
+  <si>
+    <t>COLLNET</t>
+  </si>
+  <si>
+    <t>VisGuides</t>
+  </si>
+  <si>
+    <t>Call for Participants</t>
+  </si>
+  <si>
+    <t>CCMB-Ei,CPCI,Scopus</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>IVAPP</t>
+  </si>
+  <si>
+    <t>VISIGRAPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP </t>
+  </si>
+  <si>
+    <t>VOILA</t>
+  </si>
+  <si>
+    <t>CGVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIPM </t>
+  </si>
+  <si>
+    <t>CIRSY</t>
+  </si>
+  <si>
+    <t>CHIRA</t>
+  </si>
+  <si>
+    <t>EI/Scopus--DMCIT</t>
+  </si>
+  <si>
+    <t>COMPImage</t>
+  </si>
+  <si>
+    <t>DMSVIVA</t>
+  </si>
+  <si>
+    <t>VISUAL</t>
+  </si>
+  <si>
+    <t>MICCAI</t>
+  </si>
+  <si>
+    <t>WSCG</t>
+  </si>
+  <si>
+    <t>Web3D</t>
+  </si>
+  <si>
+    <t>SDMA</t>
+  </si>
+  <si>
+    <t>PacificVis</t>
+  </si>
+  <si>
+    <t>HPORT-BD</t>
+  </si>
+  <si>
+    <t>BDVA</t>
+  </si>
+  <si>
+    <t>VizSec</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>TAProViz</t>
+  </si>
+  <si>
+    <t>DigiPro</t>
+  </si>
+  <si>
+    <t>CAD/Graphics</t>
+  </si>
+  <si>
+    <t>AICON</t>
+  </si>
+  <si>
+    <t>SIBGRAPI</t>
+  </si>
+  <si>
+    <t>SDS</t>
+  </si>
+  <si>
+    <t>JWS - VOILA</t>
+  </si>
+  <si>
+    <t>JWS-VOILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSCG </t>
+  </si>
+  <si>
+    <t>EuroVis</t>
+  </si>
+  <si>
+    <t>SI-VGA</t>
+  </si>
+  <si>
+    <t>VMV Poster</t>
+  </si>
+  <si>
+    <t>ISVC</t>
+  </si>
+  <si>
+    <t>VisualCol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMHealth </t>
+  </si>
+  <si>
+    <t>VMV</t>
+  </si>
+  <si>
+    <t>CV4VA</t>
+  </si>
+  <si>
+    <t>Conference-Live</t>
+  </si>
+  <si>
+    <t>Hot Spots in Learning Analytics from LA</t>
+  </si>
+  <si>
+    <t>EuroVis (short paper)</t>
+  </si>
+  <si>
+    <t>SCCG</t>
+  </si>
+  <si>
+    <t>CASA</t>
+  </si>
+  <si>
+    <t>IDAVis</t>
+  </si>
+  <si>
+    <t>AVI</t>
+  </si>
+  <si>
+    <t>CARS</t>
+  </si>
+  <si>
+    <t>Infovis &amp;amp; ML CFP at ESANN</t>
+  </si>
+  <si>
+    <t>IPCAI</t>
+  </si>
+  <si>
+    <t>PJIM</t>
+  </si>
+  <si>
+    <t>BigSpatial</t>
+  </si>
+  <si>
+    <t>UDMV</t>
+  </si>
+  <si>
+    <t>DIViM</t>
+  </si>
+  <si>
+    <t>ICVRV</t>
+  </si>
+  <si>
+    <t>VISSOFT</t>
+  </si>
+  <si>
+    <t>VINCI</t>
+  </si>
+  <si>
+    <t>SIGRAD</t>
+  </si>
+  <si>
+    <t>VBI-OD@IV</t>
+  </si>
+  <si>
+    <t>HDPT</t>
+  </si>
+  <si>
+    <t>SML-DS</t>
+  </si>
+  <si>
+    <t>PacificVis Notes</t>
+  </si>
+  <si>
+    <t>DIViS</t>
+  </si>
+  <si>
+    <t>ISM</t>
+  </si>
+  <si>
+    <t>VPA</t>
+  </si>
+  <si>
+    <t>VEM</t>
+  </si>
+  <si>
+    <t>VCBM</t>
+  </si>
+  <si>
+    <t>VISAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAProViz </t>
+  </si>
+  <si>
+    <t>DTOD</t>
+  </si>
+  <si>
+    <t>BFX</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>VIS</t>
+  </si>
+  <si>
+    <t>VisHMC</t>
+  </si>
+  <si>
+    <t>VBI-OD</t>
+  </si>
+  <si>
+    <t>VAST</t>
+  </si>
+  <si>
+    <t>iV2014-ARVA</t>
+  </si>
+  <si>
+    <t>EVA London</t>
+  </si>
+  <si>
+    <t>CG&amp;amp;A</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>VAHC</t>
+  </si>
+  <si>
+    <t>TextVis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MapInteract </t>
+  </si>
+  <si>
+    <t>VDA</t>
+  </si>
+  <si>
+    <t>CG&amp;amp;A VisAnalytics for Bio Data</t>
+  </si>
+  <si>
+    <t>LDAV</t>
+  </si>
+  <si>
+    <t>SPRINGER-SI-CVS</t>
+  </si>
+  <si>
+    <t>WUAV</t>
+  </si>
+  <si>
+    <t>ISI Special Topic</t>
+  </si>
+  <si>
+    <t>SocMedVis</t>
+  </si>
+  <si>
+    <t>VBI@IV</t>
+  </si>
+  <si>
+    <t>AIVDAC@IV</t>
+  </si>
+  <si>
+    <t>HSWI</t>
+  </si>
+  <si>
+    <t>SIGGRAPH</t>
+  </si>
+  <si>
+    <t>EIPT-WSN</t>
+  </si>
+  <si>
+    <t>SIPP</t>
+  </si>
+  <si>
+    <t>II-SDV</t>
+  </si>
+  <si>
+    <t>DVVA</t>
+  </si>
+  <si>
+    <t>ForceVA</t>
+  </si>
+  <si>
+    <t>VUCSE</t>
+  </si>
+  <si>
+    <t>NextMed / MMVR</t>
+  </si>
+  <si>
+    <t>WSOM</t>
+  </si>
+  <si>
+    <t>HCV</t>
+  </si>
+  <si>
+    <t>ISMAR</t>
+  </si>
+  <si>
+    <t>Vis</t>
+  </si>
+  <si>
+    <t>INFOVIS</t>
+  </si>
+  <si>
+    <t>VL/HCC</t>
+  </si>
+  <si>
+    <t>MCACT</t>
+  </si>
+  <si>
+    <t>EGPGV</t>
+  </si>
+  <si>
+    <t>3DGeoInfo</t>
+  </si>
+  <si>
+    <t>CollabViz</t>
+  </si>
+  <si>
+    <t>VISPETCHE</t>
+  </si>
+  <si>
+    <t>Advances in Signal Processing</t>
+  </si>
+  <si>
+    <t>DLA</t>
+  </si>
+  <si>
+    <t>3DUI</t>
+  </si>
+  <si>
+    <t>AFRIGRAPH</t>
+  </si>
+  <si>
+    <t>WikiViz</t>
+  </si>
+  <si>
+    <t>ADVTEL</t>
+  </si>
+  <si>
+    <t>PSB</t>
+  </si>
+  <si>
+    <t>Dataview</t>
+  </si>
+  <si>
+    <t>WMSVM</t>
+  </si>
+  <si>
+    <t>CGA</t>
+  </si>
+  <si>
+    <t>BioVis</t>
+  </si>
+  <si>
+    <t>IKTC</t>
+  </si>
+  <si>
+    <t>IWPU</t>
+  </si>
+  <si>
+    <t>NLV</t>
+  </si>
+  <si>
+    <t>InfoVis</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>MSV</t>
+  </si>
+  <si>
+    <t>ICPC</t>
+  </si>
+  <si>
+    <t>IRFC</t>
+  </si>
+  <si>
+    <t>ICCS</t>
+  </si>
+  <si>
+    <t>3DTV-CON</t>
+  </si>
+  <si>
+    <t>DATAVIEW</t>
+  </si>
+  <si>
+    <t>IJCICG</t>
+  </si>
+  <si>
+    <t>IHM</t>
+  </si>
+  <si>
+    <t>YAH2</t>
+  </si>
+  <si>
+    <t>SoftVis</t>
+  </si>
+  <si>
+    <t>VisWeek</t>
+  </si>
+  <si>
+    <t>CGIV</t>
+  </si>
+  <si>
+    <t>VCM</t>
+  </si>
+  <si>
+    <t>CGIM</t>
+  </si>
+  <si>
+    <t>GeyserValley</t>
+  </si>
+  <si>
+    <t>REV</t>
+  </si>
+  <si>
+    <t>WDSN</t>
+  </si>
+  <si>
+    <t>CGVCVIP</t>
+  </si>
+  <si>
+    <t>ICFCA</t>
+  </si>
+  <si>
+    <t>OnAV</t>
+  </si>
+  <si>
+    <t>VIIP</t>
+  </si>
+  <si>
+    <t>CDVE</t>
+  </si>
+  <si>
+    <t>3D-PVT</t>
+  </si>
+  <si>
+    <t>IEEE OnAV</t>
+  </si>
+  <si>
+    <t>Metrics for Visual Analytics</t>
+  </si>
+  <si>
+    <t>VISINF</t>
+  </si>
+  <si>
+    <t>CMBBE: Imaging &amp;amp; Visualization</t>
+  </si>
+  <si>
+    <t>APGV</t>
+  </si>
+  <si>
+    <t>Chinagraph</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A241"/>
+  <dimension ref="A1:A247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1101,172 +912,172 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -1311,972 +1122,1002 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>237</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
